--- a/d18_simulaciones.xlsx
+++ b/d18_simulaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mc72574\Dropbox\Distrito18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C88D89-17A2-465D-B08E-96DCD09EA6C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781DD2AB-DED3-4ADE-8986-A3503C7F532E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20000" windowHeight="9133" activeTab="2" xr2:uid="{D8F8B869-6F1A-4287-AC74-D4FB49C2911D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17067" windowHeight="7567" activeTab="1" xr2:uid="{D8F8B869-6F1A-4287-AC74-D4FB49C2911D}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulaciones" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="64">
   <si>
     <t>Distrito 18 - Simulaciones</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Rango Edad</t>
   </si>
   <si>
-    <t>N padron 2020</t>
-  </si>
-  <si>
-    <t>Participacion 2017</t>
-  </si>
-  <si>
     <t>Diferencia Participacion</t>
   </si>
   <si>
@@ -125,12 +119,6 @@
     <t>N Votos</t>
   </si>
   <si>
-    <t>Participacion 2020</t>
-  </si>
-  <si>
-    <t>Rango Edad 3</t>
-  </si>
-  <si>
     <t>Joven</t>
   </si>
   <si>
@@ -138,6 +126,99 @@
   </si>
   <si>
     <t>Mayor</t>
+  </si>
+  <si>
+    <t>RangoEdad</t>
+  </si>
+  <si>
+    <t>RangoEdad3</t>
+  </si>
+  <si>
+    <t>Npadron2020</t>
+  </si>
+  <si>
+    <t>Participacion2017</t>
+  </si>
+  <si>
+    <t>Npadron2017</t>
+  </si>
+  <si>
+    <t>Nvotos2017</t>
+  </si>
+  <si>
+    <t>Cauquenes</t>
+  </si>
+  <si>
+    <t>18 a 19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80 o +</t>
+  </si>
+  <si>
+    <t>Chanco</t>
+  </si>
+  <si>
+    <t>Colbun</t>
+  </si>
+  <si>
+    <t>Linares</t>
+  </si>
+  <si>
+    <t>Longavi</t>
+  </si>
+  <si>
+    <t>Parral</t>
+  </si>
+  <si>
+    <t>Pelluhue</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>San Javier</t>
+  </si>
+  <si>
+    <t>Villa Alegre</t>
+  </si>
+  <si>
+    <t>Yerbas Buenas</t>
   </si>
 </sst>
 </file>
@@ -671,7 +752,7 @@
   <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -679,6 +760,7 @@
     <col min="1" max="1" width="12.76171875" customWidth="1"/>
     <col min="2" max="2" width="22.703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="20.7" customHeight="1" x14ac:dyDescent="0.7">
@@ -777,7 +859,7 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -791,13 +873,13 @@
     <row r="9" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -815,7 +897,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -855,39 +937,3580 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3967F0-5290-4157-BAFE-4D7A35FFBA2B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="7.46875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="15.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1263</v>
+      </c>
+      <c r="E2">
+        <v>376</v>
+      </c>
+      <c r="F2">
+        <v>0.29770387965162298</v>
+      </c>
+      <c r="G2">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3509</v>
+      </c>
+      <c r="E3">
+        <v>985</v>
+      </c>
+      <c r="F3">
+        <v>0.280706754060986</v>
+      </c>
+      <c r="G3">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3578</v>
+      </c>
+      <c r="E4">
+        <v>1057</v>
+      </c>
+      <c r="F4">
+        <v>0.29541643376187798</v>
+      </c>
+      <c r="G4">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2942</v>
+      </c>
+      <c r="E5">
+        <v>968</v>
+      </c>
+      <c r="F5">
+        <v>0.329027872195785</v>
+      </c>
+      <c r="G5">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2982</v>
+      </c>
+      <c r="E6">
+        <v>1217</v>
+      </c>
+      <c r="F6">
+        <v>0.408115358819584</v>
+      </c>
+      <c r="G6">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3160</v>
+      </c>
+      <c r="E7">
+        <v>1418</v>
+      </c>
+      <c r="F7">
+        <v>0.44873417721518999</v>
+      </c>
+      <c r="G7">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3315</v>
+      </c>
+      <c r="E8">
+        <v>1630</v>
+      </c>
+      <c r="F8">
+        <v>0.49170437405731499</v>
+      </c>
+      <c r="G8">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3418</v>
+      </c>
+      <c r="E9">
+        <v>1946</v>
+      </c>
+      <c r="F9">
+        <v>0.56933879461673498</v>
+      </c>
+      <c r="G9">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2923</v>
+      </c>
+      <c r="E10">
+        <v>1823</v>
+      </c>
+      <c r="F10">
+        <v>0.62367430721861095</v>
+      </c>
+      <c r="G10">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2536</v>
+      </c>
+      <c r="E11">
+        <v>1674</v>
+      </c>
+      <c r="F11">
+        <v>0.66009463722397499</v>
+      </c>
+      <c r="G11">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2022</v>
+      </c>
+      <c r="E12">
+        <v>1378</v>
+      </c>
+      <c r="F12">
+        <v>0.681503461918892</v>
+      </c>
+      <c r="G12">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1762</v>
+      </c>
+      <c r="E13">
+        <v>1156</v>
+      </c>
+      <c r="F13">
+        <v>0.65607264472190696</v>
+      </c>
+      <c r="G13">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1455</v>
+      </c>
+      <c r="E14">
+        <v>858</v>
+      </c>
+      <c r="F14">
+        <v>0.58969072164948499</v>
+      </c>
+      <c r="G14">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2471</v>
+      </c>
+      <c r="E15">
+        <v>730</v>
+      </c>
+      <c r="F15">
+        <v>0.29542695265074898</v>
+      </c>
+      <c r="G15">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>298</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>0.26845637583892601</v>
+      </c>
+      <c r="G16">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>772</v>
+      </c>
+      <c r="E17">
+        <v>202</v>
+      </c>
+      <c r="F17">
+        <v>0.261658031088083</v>
+      </c>
+      <c r="G17">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>873</v>
+      </c>
+      <c r="E18">
+        <v>267</v>
+      </c>
+      <c r="F18">
+        <v>0.30584192439862501</v>
+      </c>
+      <c r="G18">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>746</v>
+      </c>
+      <c r="E19">
+        <v>278</v>
+      </c>
+      <c r="F19">
+        <v>0.37265415549597902</v>
+      </c>
+      <c r="G19">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>838</v>
+      </c>
+      <c r="E20">
+        <v>336</v>
+      </c>
+      <c r="F20">
+        <v>0.40095465393794699</v>
+      </c>
+      <c r="G20">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>745</v>
+      </c>
+      <c r="E21">
+        <v>353</v>
+      </c>
+      <c r="F21">
+        <v>0.473825503355705</v>
+      </c>
+      <c r="G21">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>889</v>
+      </c>
+      <c r="E22">
+        <v>477</v>
+      </c>
+      <c r="F22">
+        <v>0.53655793025871801</v>
+      </c>
+      <c r="G22">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>875</v>
+      </c>
+      <c r="E23">
+        <v>534</v>
+      </c>
+      <c r="F23">
+        <v>0.61028571428571399</v>
+      </c>
+      <c r="G23">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>781</v>
+      </c>
+      <c r="E24">
+        <v>506</v>
+      </c>
+      <c r="F24">
+        <v>0.647887323943662</v>
+      </c>
+      <c r="G24">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>622</v>
+      </c>
+      <c r="E25">
+        <v>431</v>
+      </c>
+      <c r="F25">
+        <v>0.69292604501607702</v>
+      </c>
+      <c r="G25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>465</v>
+      </c>
+      <c r="E26">
+        <v>328</v>
+      </c>
+      <c r="F26">
+        <v>0.70537634408602101</v>
+      </c>
+      <c r="G26">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>435</v>
+      </c>
+      <c r="E27">
+        <v>299</v>
+      </c>
+      <c r="F27">
+        <v>0.68735632183908002</v>
+      </c>
+      <c r="G27">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>318</v>
+      </c>
+      <c r="E28">
+        <v>177</v>
+      </c>
+      <c r="F28">
+        <v>0.55660377358490598</v>
+      </c>
+      <c r="G28">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>536</v>
+      </c>
+      <c r="E29">
+        <v>193</v>
+      </c>
+      <c r="F29">
+        <v>0.36007462686567199</v>
+      </c>
+      <c r="G29">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>541</v>
+      </c>
+      <c r="E30">
+        <v>182</v>
+      </c>
+      <c r="F30">
+        <v>0.33641404805914998</v>
+      </c>
+      <c r="G30">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1583</v>
+      </c>
+      <c r="E31">
+        <v>577</v>
+      </c>
+      <c r="F31">
+        <v>0.364497789008212</v>
+      </c>
+      <c r="G31">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1706</v>
+      </c>
+      <c r="E32">
+        <v>655</v>
+      </c>
+      <c r="F32">
+        <v>0.38393903868698698</v>
+      </c>
+      <c r="G32">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1477</v>
+      </c>
+      <c r="E33">
+        <v>593</v>
+      </c>
+      <c r="F33">
+        <v>0.40148950575490899</v>
+      </c>
+      <c r="G33">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1431</v>
+      </c>
+      <c r="E34">
+        <v>658</v>
+      </c>
+      <c r="F34">
+        <v>0.45981830887491298</v>
+      </c>
+      <c r="G34">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1459</v>
+      </c>
+      <c r="E35">
+        <v>731</v>
+      </c>
+      <c r="F35">
+        <v>0.50102810143934196</v>
+      </c>
+      <c r="G35">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1610</v>
+      </c>
+      <c r="E36">
+        <v>868</v>
+      </c>
+      <c r="F36">
+        <v>0.53913043478260902</v>
+      </c>
+      <c r="G36">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1627</v>
+      </c>
+      <c r="E37">
+        <v>930</v>
+      </c>
+      <c r="F37">
+        <v>0.57160417947141995</v>
+      </c>
+      <c r="G37">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1484</v>
+      </c>
+      <c r="E38">
+        <v>915</v>
+      </c>
+      <c r="F38">
+        <v>0.61657681940700804</v>
+      </c>
+      <c r="G38">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1210</v>
+      </c>
+      <c r="E39">
+        <v>811</v>
+      </c>
+      <c r="F39">
+        <v>0.67024793388429704</v>
+      </c>
+      <c r="G39">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>991</v>
+      </c>
+      <c r="E40">
+        <v>674</v>
+      </c>
+      <c r="F40">
+        <v>0.68012108980827402</v>
+      </c>
+      <c r="G40">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>738</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>0.67750677506775103</v>
+      </c>
+      <c r="G41">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>525</v>
+      </c>
+      <c r="E42">
+        <v>309</v>
+      </c>
+      <c r="F42">
+        <v>0.58857142857142897</v>
+      </c>
+      <c r="G42">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>633</v>
+      </c>
+      <c r="E43">
+        <v>223</v>
+      </c>
+      <c r="F43">
+        <v>0.35229067930489699</v>
+      </c>
+      <c r="G43">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>3092</v>
+      </c>
+      <c r="E44">
+        <v>1082</v>
+      </c>
+      <c r="F44">
+        <v>0.34993531694696001</v>
+      </c>
+      <c r="G44">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>8037</v>
+      </c>
+      <c r="E45">
+        <v>2544</v>
+      </c>
+      <c r="F45">
+        <v>0.316536020903322</v>
+      </c>
+      <c r="G45">
+        <v>7492</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>8487</v>
+      </c>
+      <c r="E46">
+        <v>2913</v>
+      </c>
+      <c r="F46">
+        <v>0.343230823612584</v>
+      </c>
+      <c r="G46">
+        <v>8047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>7001</v>
+      </c>
+      <c r="E47">
+        <v>2376</v>
+      </c>
+      <c r="F47">
+        <v>0.33938008855877699</v>
+      </c>
+      <c r="G47">
+        <v>7821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>7056</v>
+      </c>
+      <c r="E48">
+        <v>2599</v>
+      </c>
+      <c r="F48">
+        <v>0.36833900226757399</v>
+      </c>
+      <c r="G48">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>6639</v>
+      </c>
+      <c r="E49">
+        <v>2909</v>
+      </c>
+      <c r="F49">
+        <v>0.438168398855249</v>
+      </c>
+      <c r="G49">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>6981</v>
+      </c>
+      <c r="E50">
+        <v>3299</v>
+      </c>
+      <c r="F50">
+        <v>0.472568399942702</v>
+      </c>
+      <c r="G50">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>7637</v>
+      </c>
+      <c r="E51">
+        <v>4040</v>
+      </c>
+      <c r="F51">
+        <v>0.52900353541966705</v>
+      </c>
+      <c r="G51">
+        <v>7395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>6484</v>
+      </c>
+      <c r="E52">
+        <v>3696</v>
+      </c>
+      <c r="F52">
+        <v>0.57001850709438595</v>
+      </c>
+      <c r="G52">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>5296</v>
+      </c>
+      <c r="E53">
+        <v>3229</v>
+      </c>
+      <c r="F53">
+        <v>0.60970543806646504</v>
+      </c>
+      <c r="G53">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>4218</v>
+      </c>
+      <c r="E54">
+        <v>2675</v>
+      </c>
+      <c r="F54">
+        <v>0.63418681839734503</v>
+      </c>
+      <c r="G54">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3217</v>
+      </c>
+      <c r="E55">
+        <v>2020</v>
+      </c>
+      <c r="F55">
+        <v>0.62791420578178403</v>
+      </c>
+      <c r="G55">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2377</v>
+      </c>
+      <c r="E56">
+        <v>1299</v>
+      </c>
+      <c r="F56">
+        <v>0.54648716870004199</v>
+      </c>
+      <c r="G56">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3663</v>
+      </c>
+      <c r="E57">
+        <v>1081</v>
+      </c>
+      <c r="F57">
+        <v>0.29511329511329498</v>
+      </c>
+      <c r="G57">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>836</v>
+      </c>
+      <c r="E58">
+        <v>228</v>
+      </c>
+      <c r="F58">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="G58">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2321</v>
+      </c>
+      <c r="E59">
+        <v>638</v>
+      </c>
+      <c r="F59">
+        <v>0.27488151658767801</v>
+      </c>
+      <c r="G59">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>2595</v>
+      </c>
+      <c r="E60">
+        <v>741</v>
+      </c>
+      <c r="F60">
+        <v>0.28554913294797701</v>
+      </c>
+      <c r="G60">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2209</v>
+      </c>
+      <c r="E61">
+        <v>708</v>
+      </c>
+      <c r="F61">
+        <v>0.32050701674965998</v>
+      </c>
+      <c r="G61">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2128</v>
+      </c>
+      <c r="E62">
+        <v>752</v>
+      </c>
+      <c r="F62">
+        <v>0.35338345864661702</v>
+      </c>
+      <c r="G62">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2252</v>
+      </c>
+      <c r="E63">
+        <v>934</v>
+      </c>
+      <c r="F63">
+        <v>0.41474245115452901</v>
+      </c>
+      <c r="G63">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2405</v>
+      </c>
+      <c r="E64">
+        <v>1103</v>
+      </c>
+      <c r="F64">
+        <v>0.45862785862785899</v>
+      </c>
+      <c r="G64">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2620</v>
+      </c>
+      <c r="E65">
+        <v>1375</v>
+      </c>
+      <c r="F65">
+        <v>0.52480916030534397</v>
+      </c>
+      <c r="G65">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2251</v>
+      </c>
+      <c r="E66">
+        <v>1262</v>
+      </c>
+      <c r="F66">
+        <v>0.56063971568191895</v>
+      </c>
+      <c r="G66">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1726</v>
+      </c>
+      <c r="E67">
+        <v>1021</v>
+      </c>
+      <c r="F67">
+        <v>0.59154113557358101</v>
+      </c>
+      <c r="G67">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>1349</v>
+      </c>
+      <c r="E68">
+        <v>843</v>
+      </c>
+      <c r="F68">
+        <v>0.62490733876945903</v>
+      </c>
+      <c r="G68">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1150</v>
+      </c>
+      <c r="E69">
+        <v>687</v>
+      </c>
+      <c r="F69">
+        <v>0.59739130434782595</v>
+      </c>
+      <c r="G69">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>764</v>
+      </c>
+      <c r="E70">
+        <v>425</v>
+      </c>
+      <c r="F70">
+        <v>0.55628272251308897</v>
+      </c>
+      <c r="G70">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1075</v>
+      </c>
+      <c r="E71">
+        <v>243</v>
+      </c>
+      <c r="F71">
+        <v>0.22604651162790701</v>
+      </c>
+      <c r="G71">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1275</v>
+      </c>
+      <c r="E72">
+        <v>429</v>
+      </c>
+      <c r="F72">
+        <v>0.33647058823529402</v>
+      </c>
+      <c r="G72">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>3581</v>
+      </c>
+      <c r="E73">
+        <v>1096</v>
+      </c>
+      <c r="F73">
+        <v>0.30605975984361899</v>
+      </c>
+      <c r="G73">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>3772</v>
+      </c>
+      <c r="E74">
+        <v>1225</v>
+      </c>
+      <c r="F74">
+        <v>0.32476139978791102</v>
+      </c>
+      <c r="G74">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>3040</v>
+      </c>
+      <c r="E75">
+        <v>1098</v>
+      </c>
+      <c r="F75">
+        <v>0.361184210526316</v>
+      </c>
+      <c r="G75">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2761</v>
+      </c>
+      <c r="E76">
+        <v>1128</v>
+      </c>
+      <c r="F76">
+        <v>0.40854762767113401</v>
+      </c>
+      <c r="G76">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A77" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>3004</v>
+      </c>
+      <c r="E77">
+        <v>1365</v>
+      </c>
+      <c r="F77">
+        <v>0.45439414114513998</v>
+      </c>
+      <c r="G77">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>3603</v>
+      </c>
+      <c r="E78">
+        <v>1767</v>
+      </c>
+      <c r="F78">
+        <v>0.490424646128227</v>
+      </c>
+      <c r="G78">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>3633</v>
+      </c>
+      <c r="E79">
+        <v>1957</v>
+      </c>
+      <c r="F79">
+        <v>0.53867327277731902</v>
+      </c>
+      <c r="G79">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2944</v>
+      </c>
+      <c r="E80">
+        <v>1783</v>
+      </c>
+      <c r="F80">
+        <v>0.60563858695652195</v>
+      </c>
+      <c r="G80">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>2486</v>
+      </c>
+      <c r="E81">
+        <v>1590</v>
+      </c>
+      <c r="F81">
+        <v>0.63958165728077199</v>
+      </c>
+      <c r="G81">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1970</v>
+      </c>
+      <c r="E82">
+        <v>1325</v>
+      </c>
+      <c r="F82">
+        <v>0.67258883248731005</v>
+      </c>
+      <c r="G82">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1648</v>
+      </c>
+      <c r="E83">
+        <v>1059</v>
+      </c>
+      <c r="F83">
+        <v>0.64259708737864096</v>
+      </c>
+      <c r="G83">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>1294</v>
+      </c>
+      <c r="E84">
+        <v>744</v>
+      </c>
+      <c r="F84">
+        <v>0.57496136012364796</v>
+      </c>
+      <c r="G84">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>2024</v>
+      </c>
+      <c r="E85">
+        <v>598</v>
+      </c>
+      <c r="F85">
+        <v>0.29545454545454503</v>
+      </c>
+      <c r="G85">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>186</v>
+      </c>
+      <c r="E86">
+        <v>61</v>
+      </c>
+      <c r="F86">
+        <v>0.32795698924731198</v>
+      </c>
+      <c r="G86">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>529</v>
+      </c>
+      <c r="E87">
+        <v>178</v>
+      </c>
+      <c r="F87">
+        <v>0.33648393194706999</v>
+      </c>
+      <c r="G87">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>632</v>
+      </c>
+      <c r="E88">
+        <v>250</v>
+      </c>
+      <c r="F88">
+        <v>0.395569620253165</v>
+      </c>
+      <c r="G88">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>598</v>
+      </c>
+      <c r="E89">
+        <v>258</v>
+      </c>
+      <c r="F89">
+        <v>0.43143812709030099</v>
+      </c>
+      <c r="G89">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>549</v>
+      </c>
+      <c r="E90">
+        <v>266</v>
+      </c>
+      <c r="F90">
+        <v>0.48451730418943501</v>
+      </c>
+      <c r="G90">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>575</v>
+      </c>
+      <c r="E91">
+        <v>315</v>
+      </c>
+      <c r="F91">
+        <v>0.54782608695652202</v>
+      </c>
+      <c r="G91">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>640</v>
+      </c>
+      <c r="E92">
+        <v>347</v>
+      </c>
+      <c r="F92">
+        <v>0.54218750000000004</v>
+      </c>
+      <c r="G92">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>624</v>
+      </c>
+      <c r="E93">
+        <v>377</v>
+      </c>
+      <c r="F93">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="G93">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>553</v>
+      </c>
+      <c r="E94">
+        <v>381</v>
+      </c>
+      <c r="F94">
+        <v>0.68896925858951197</v>
+      </c>
+      <c r="G94">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>521</v>
+      </c>
+      <c r="E95">
+        <v>345</v>
+      </c>
+      <c r="F95">
+        <v>0.66218809980806104</v>
+      </c>
+      <c r="G95">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>447</v>
+      </c>
+      <c r="E96">
+        <v>313</v>
+      </c>
+      <c r="F96">
+        <v>0.70022371364653202</v>
+      </c>
+      <c r="G96">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A97" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>351</v>
+      </c>
+      <c r="E97">
+        <v>245</v>
+      </c>
+      <c r="F97">
+        <v>0.69800569800569801</v>
+      </c>
+      <c r="G97">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>305</v>
+      </c>
+      <c r="E98">
+        <v>200</v>
+      </c>
+      <c r="F98">
+        <v>0.65573770491803296</v>
+      </c>
+      <c r="G98">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>341</v>
+      </c>
+      <c r="E99">
+        <v>141</v>
+      </c>
+      <c r="F99">
+        <v>0.41348973607038098</v>
+      </c>
+      <c r="G99">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>567</v>
+      </c>
+      <c r="E100">
+        <v>158</v>
+      </c>
+      <c r="F100">
+        <v>0.27865961199294498</v>
+      </c>
+      <c r="G100">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1461</v>
+      </c>
+      <c r="E101">
+        <v>439</v>
+      </c>
+      <c r="F101">
+        <v>0.300479123887748</v>
+      </c>
+      <c r="G101">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1498</v>
+      </c>
+      <c r="E102">
+        <v>535</v>
+      </c>
+      <c r="F102">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="G102">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A103" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1309</v>
+      </c>
+      <c r="E103">
+        <v>515</v>
+      </c>
+      <c r="F103">
+        <v>0.39343009931245199</v>
+      </c>
+      <c r="G103">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A104" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>1175</v>
+      </c>
+      <c r="E104">
+        <v>470</v>
+      </c>
+      <c r="F104">
+        <v>0.4</v>
+      </c>
+      <c r="G104">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A105" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1467</v>
+      </c>
+      <c r="E105">
+        <v>677</v>
+      </c>
+      <c r="F105">
+        <v>0.46148602590320398</v>
+      </c>
+      <c r="G105">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1726</v>
+      </c>
+      <c r="E106">
+        <v>906</v>
+      </c>
+      <c r="F106">
+        <v>0.52491309385863305</v>
+      </c>
+      <c r="G106">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A107" t="s">
+        <v>60</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>1736</v>
+      </c>
+      <c r="E107">
+        <v>991</v>
+      </c>
+      <c r="F107">
+        <v>0.57085253456221197</v>
+      </c>
+      <c r="G107">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1459</v>
+      </c>
+      <c r="E108">
+        <v>896</v>
+      </c>
+      <c r="F108">
+        <v>0.61411925976696402</v>
+      </c>
+      <c r="G108">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>1162</v>
+      </c>
+      <c r="E109">
+        <v>739</v>
+      </c>
+      <c r="F109">
+        <v>0.63597246127366602</v>
+      </c>
+      <c r="G109">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>923</v>
+      </c>
+      <c r="E110">
+        <v>639</v>
+      </c>
+      <c r="F110">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="G110">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A111" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>715</v>
+      </c>
+      <c r="E111">
+        <v>466</v>
+      </c>
+      <c r="F111">
+        <v>0.65174825174825202</v>
+      </c>
+      <c r="G111">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A112" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>527</v>
+      </c>
+      <c r="E112">
+        <v>290</v>
+      </c>
+      <c r="F112">
+        <v>0.55028462998102501</v>
+      </c>
+      <c r="G112">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>702</v>
+      </c>
+      <c r="E113">
+        <v>217</v>
+      </c>
+      <c r="F113">
+        <v>0.309116809116809</v>
+      </c>
+      <c r="G113">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1296</v>
+      </c>
+      <c r="E114">
+        <v>392</v>
+      </c>
+      <c r="F114">
+        <v>0.30246913580246898</v>
+      </c>
+      <c r="G114">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>3668</v>
+      </c>
+      <c r="E115">
+        <v>1149</v>
+      </c>
+      <c r="F115">
+        <v>0.31324972737186502</v>
+      </c>
+      <c r="G115">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>3809</v>
+      </c>
+      <c r="E116">
+        <v>1187</v>
+      </c>
+      <c r="F116">
+        <v>0.31163034917301102</v>
+      </c>
+      <c r="G116">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>3171</v>
+      </c>
+      <c r="E117">
+        <v>1067</v>
+      </c>
+      <c r="F117">
+        <v>0.33648691264585301</v>
+      </c>
+      <c r="G117">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2897</v>
+      </c>
+      <c r="E118">
+        <v>1124</v>
+      </c>
+      <c r="F118">
+        <v>0.387987573351743</v>
+      </c>
+      <c r="G118">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>3240</v>
+      </c>
+      <c r="E119">
+        <v>1436</v>
+      </c>
+      <c r="F119">
+        <v>0.44320987654320998</v>
+      </c>
+      <c r="G119">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
+        <v>46</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>3753</v>
+      </c>
+      <c r="E120">
+        <v>1784</v>
+      </c>
+      <c r="F120">
+        <v>0.47535305089261898</v>
+      </c>
+      <c r="G120">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>3645</v>
+      </c>
+      <c r="E121">
+        <v>1983</v>
+      </c>
+      <c r="F121">
+        <v>0.54403292181069995</v>
+      </c>
+      <c r="G121">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>3009</v>
+      </c>
+      <c r="E122">
+        <v>1743</v>
+      </c>
+      <c r="F122">
+        <v>0.57926221335992001</v>
+      </c>
+      <c r="G122">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A123" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>2454</v>
+      </c>
+      <c r="E123">
+        <v>1533</v>
+      </c>
+      <c r="F123">
+        <v>0.62469437652811699</v>
+      </c>
+      <c r="G123">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>2064</v>
+      </c>
+      <c r="E124">
+        <v>1339</v>
+      </c>
+      <c r="F124">
+        <v>0.64874031007751898</v>
+      </c>
+      <c r="G124">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>1665</v>
+      </c>
+      <c r="E125">
+        <v>1022</v>
+      </c>
+      <c r="F125">
+        <v>0.61381381381381395</v>
+      </c>
+      <c r="G125">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>1208</v>
+      </c>
+      <c r="E126">
+        <v>666</v>
+      </c>
+      <c r="F126">
+        <v>0.55132450331125804</v>
+      </c>
+      <c r="G126">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A127" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>1762</v>
+      </c>
+      <c r="E127">
+        <v>503</v>
+      </c>
+      <c r="F127">
+        <v>0.28547105561861502</v>
+      </c>
+      <c r="G127">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A128" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>363</v>
+      </c>
+      <c r="E128">
+        <v>110</v>
+      </c>
+      <c r="F128">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="G128">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1104</v>
+      </c>
+      <c r="E129">
+        <v>325</v>
+      </c>
+      <c r="F129">
+        <v>0.29438405797101402</v>
+      </c>
+      <c r="G129">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1113</v>
+      </c>
+      <c r="E130">
+        <v>412</v>
+      </c>
+      <c r="F130">
+        <v>0.37017070979335098</v>
+      </c>
+      <c r="G130">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A131" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1090</v>
+      </c>
+      <c r="E131">
+        <v>409</v>
+      </c>
+      <c r="F131">
+        <v>0.37522935779816502</v>
+      </c>
+      <c r="G131">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>991</v>
+      </c>
+      <c r="E132">
+        <v>408</v>
+      </c>
+      <c r="F132">
+        <v>0.41170534813319898</v>
+      </c>
+      <c r="G132">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A133" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>1071</v>
+      </c>
+      <c r="E133">
+        <v>524</v>
+      </c>
+      <c r="F133">
+        <v>0.489262371615313</v>
+      </c>
+      <c r="G133">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B134" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>1346</v>
+      </c>
+      <c r="E134">
+        <v>672</v>
+      </c>
+      <c r="F134">
+        <v>0.49925705794948</v>
+      </c>
+      <c r="G134">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>1294</v>
+      </c>
+      <c r="E135">
+        <v>683</v>
+      </c>
+      <c r="F135">
+        <v>0.52782071097372496</v>
+      </c>
+      <c r="G135">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>1109</v>
+      </c>
+      <c r="E136">
+        <v>649</v>
+      </c>
+      <c r="F136">
+        <v>0.58521190261496803</v>
+      </c>
+      <c r="G136">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A137" t="s">
+        <v>62</v>
+      </c>
+      <c r="B137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>983</v>
+      </c>
+      <c r="E137">
+        <v>617</v>
+      </c>
+      <c r="F137">
+        <v>0.62767039674465896</v>
+      </c>
+      <c r="G137">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A138" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>781</v>
+      </c>
+      <c r="E138">
+        <v>503</v>
+      </c>
+      <c r="F138">
+        <v>0.64404609475032004</v>
+      </c>
+      <c r="G138">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>632</v>
+      </c>
+      <c r="E139">
+        <v>401</v>
+      </c>
+      <c r="F139">
+        <v>0.634493670886076</v>
+      </c>
+      <c r="G139">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A140" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>495</v>
+      </c>
+      <c r="E140">
+        <v>288</v>
+      </c>
+      <c r="F140">
+        <v>0.58181818181818201</v>
+      </c>
+      <c r="G140">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>697</v>
+      </c>
+      <c r="E141">
+        <v>233</v>
+      </c>
+      <c r="F141">
+        <v>0.33428981348636999</v>
+      </c>
+      <c r="G141">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A142" t="s">
+        <v>63</v>
+      </c>
+      <c r="B142" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>474</v>
+      </c>
+      <c r="E142">
+        <v>107</v>
+      </c>
+      <c r="F142">
+        <v>0.22573839662447301</v>
+      </c>
+      <c r="G142">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1269</v>
+      </c>
+      <c r="E143">
+        <v>342</v>
+      </c>
+      <c r="F143">
+        <v>0.269503546099291</v>
+      </c>
+      <c r="G143">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A144" t="s">
+        <v>63</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1302</v>
+      </c>
+      <c r="E144">
+        <v>394</v>
+      </c>
+      <c r="F144">
+        <v>0.30261136712749598</v>
+      </c>
+      <c r="G144">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B145" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1162</v>
+      </c>
+      <c r="E145">
+        <v>405</v>
+      </c>
+      <c r="F145">
+        <v>0.34853700516351099</v>
+      </c>
+      <c r="G145">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A146" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" t="s">
+        <v>44</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>1146</v>
+      </c>
+      <c r="E146">
+        <v>438</v>
+      </c>
+      <c r="F146">
+        <v>0.382198952879581</v>
+      </c>
+      <c r="G146">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A147" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>1258</v>
+      </c>
+      <c r="E147">
+        <v>575</v>
+      </c>
+      <c r="F147">
+        <v>0.45707472178060399</v>
+      </c>
+      <c r="G147">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A148" t="s">
+        <v>63</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>1377</v>
+      </c>
+      <c r="E148">
+        <v>751</v>
+      </c>
+      <c r="F148">
+        <v>0.54538852578068298</v>
+      </c>
+      <c r="G148">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A149" t="s">
+        <v>63</v>
+      </c>
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>1466</v>
+      </c>
+      <c r="E149">
+        <v>874</v>
+      </c>
+      <c r="F149">
+        <v>0.59618008185538895</v>
+      </c>
+      <c r="G149">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A150" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>1172</v>
+      </c>
+      <c r="E150">
+        <v>684</v>
+      </c>
+      <c r="F150">
+        <v>0.58361774744027295</v>
+      </c>
+      <c r="G150">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>995</v>
+      </c>
+      <c r="E151">
+        <v>665</v>
+      </c>
+      <c r="F151">
+        <v>0.66834170854271402</v>
+      </c>
+      <c r="G151">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A152" t="s">
+        <v>63</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>775</v>
+      </c>
+      <c r="E152">
+        <v>522</v>
+      </c>
+      <c r="F152">
+        <v>0.673548387096774</v>
+      </c>
+      <c r="G152">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A153" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>630</v>
+      </c>
+      <c r="E153">
+        <v>398</v>
+      </c>
+      <c r="F153">
+        <v>0.63174603174603206</v>
+      </c>
+      <c r="G153">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A154" t="s">
+        <v>63</v>
+      </c>
+      <c r="B154" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>435</v>
+      </c>
+      <c r="E154">
+        <v>251</v>
+      </c>
+      <c r="F154">
+        <v>0.57701149425287401</v>
+      </c>
+      <c r="G154">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A155" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>534</v>
+      </c>
+      <c r="E155">
+        <v>161</v>
+      </c>
+      <c r="F155">
+        <v>0.30149812734082398</v>
+      </c>
+      <c r="G155">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +4522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81B1C90-DBFE-48E0-8CDE-BD0CB9E3661E}">
   <dimension ref="A2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -917,10 +4540,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
@@ -928,22 +4551,22 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>9</v>
@@ -951,26 +4574,26 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
